--- a/PricingWithExcel_Outputs.xlsx
+++ b/PricingWithExcel_Outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thibc\source\repos\Pricer-Structured-Product\Stuctured-Product-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45356FF7-C750-407A-9DAE-FB526D002C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF7402A-5132-47A9-AF3F-5D78CDD4D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13" yWindow="0" windowWidth="25587" windowHeight="13680" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
   </bookViews>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBC9392-2283-4039-8A6D-AA3836CC4E57}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -467,59 +467,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>

--- a/PricingWithExcel_Outputs.xlsx
+++ b/PricingWithExcel_Outputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thibc\source\repos\Pricer-Structured-Product\Stuctured-Product-Pricing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thibc\OneDrive\Documents\Dev\Stuctured-Product-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF7402A-5132-47A9-AF3F-5D78CDD4D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74848348-C0A3-4373-ACFE-2EECA93AB964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13" yWindow="0" windowWidth="25587" windowHeight="13680" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -37,39 +37,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>Some infos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>BarrierCapital</t>
+  </si>
+  <si>
+    <t>BarrierCoupon</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>BarrierCall</t>
+  </si>
+  <si>
+    <t>ObsFrequency</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>ProductType</t>
   </si>
   <si>
     <t>JobNumber</t>
   </si>
   <si>
-    <t>ProductType</t>
-  </si>
-  <si>
-    <t>Athena</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>5,05</t>
+    <t>CouponPrice</t>
   </si>
   <si>
     <t>PricingTime</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>10,2</t>
-  </si>
-  <si>
-    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,12 +107,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,16 +468,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB0652A-F9A9-4228-A585-1072D2F60306}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>49.999904632568359</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>49.999904632568359</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>49.999904632568359</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -459,79 +619,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBC9392-2283-4039-8A6D-AA3836CC4E57}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PricingWithExcel_Outputs.xlsx
+++ b/PricingWithExcel_Outputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thibc\OneDrive\Documents\Dev\Stuctured-Product-Pricing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapdu\COMMUN\Dauphine\Stuctured-Product-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74848348-C0A3-4373-ACFE-2EECA93AB964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC81251-0503-43F4-8828-33ED032E98B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,14 +474,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -510,7 +510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>49.999904632568359</v>
+        <v>2.5425910949707031</v>
       </c>
       <c r="I2" s="2">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -562,13 +562,13 @@
         <v>7</v>
       </c>
       <c r="H3" s="2">
-        <v>49.999904632568359</v>
+        <v>1.1588096618652344</v>
       </c>
       <c r="I3" s="2">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -591,25 +591,25 @@
         <v>6</v>
       </c>
       <c r="H4" s="2">
-        <v>49.999904632568359</v>
+        <v>5.4686546325683594</v>
       </c>
       <c r="I4" s="2">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PricingWithExcel_Outputs.xlsx
+++ b/PricingWithExcel_Outputs.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapdu\COMMUN\Dauphine\Stuctured-Product-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC81251-0503-43F4-8828-33ED032E98B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDA51366-DD4B-4B99-8081-A7E41635EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Outputs" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -471,7 +470,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,10 +532,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>2.5425910949707031</v>
+        <v>7.4217796325683594</v>
       </c>
       <c r="I2" s="2">
-        <v>0.68500000000000005</v>
+        <v>2.8359999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -562,10 +561,10 @@
         <v>7</v>
       </c>
       <c r="H3" s="2">
-        <v>1.1588096618652344</v>
+        <v>2.1597862243652344</v>
       </c>
       <c r="I3" s="2">
-        <v>0.51500000000000001</v>
+        <v>3.7530000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -591,10 +590,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="2">
-        <v>5.4686546325683594</v>
+        <v>7.6115608215332031</v>
       </c>
       <c r="I4" s="2">
-        <v>0.52400000000000002</v>
+        <v>2.5190000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -615,16 +614,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBC9392-2283-4039-8A6D-AA3836CC4E57}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PricingWithExcel_Outputs.xlsx
+++ b/PricingWithExcel_Outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapdu\COMMUN\Dauphine\Stuctured-Product-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDA51366-DD4B-4B99-8081-A7E41635EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C8BBD8-EF41-48B8-8C48-B9EE508AB8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -532,10 +532,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>7.4217796325683594</v>
+        <v>7.4748039245605469</v>
       </c>
       <c r="I2" s="2">
-        <v>2.8359999999999999</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -561,10 +561,10 @@
         <v>7</v>
       </c>
       <c r="H3" s="2">
-        <v>2.1597862243652344</v>
+        <v>2.1605491638183594</v>
       </c>
       <c r="I3" s="2">
-        <v>3.7530000000000001</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -590,10 +590,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="2">
-        <v>7.6115608215332031</v>
+        <v>7.5896263122558594</v>
       </c>
       <c r="I4" s="2">
-        <v>2.5190000000000001</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">

--- a/PricingWithExcel_Outputs.xlsx
+++ b/PricingWithExcel_Outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapdu\COMMUN\Dauphine\Stuctured-Product-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C8BBD8-EF41-48B8-8C48-B9EE508AB8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0ACD148-E8E9-48EB-9B7A-21839DB3DE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF7C217-B622-48AB-BDAA-97B76FB71871}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -532,10 +532,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>7.4748039245605469</v>
+        <v>7.4738502502441406</v>
       </c>
       <c r="I2" s="2">
-        <v>2.48</v>
+        <v>2.7050000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -561,10 +561,10 @@
         <v>7</v>
       </c>
       <c r="H3" s="2">
-        <v>2.1605491638183594</v>
+        <v>2.1664619445800781</v>
       </c>
       <c r="I3" s="2">
-        <v>3.66</v>
+        <v>4.4409999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -590,10 +590,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="2">
-        <v>7.5896263122558594</v>
+        <v>7.6045036315917969</v>
       </c>
       <c r="I4" s="2">
-        <v>2.984</v>
+        <v>2.7839999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
